--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>0798192c-dc75-48a7-91c5-d184a515920e</t>
+    <t>f06952f0-89f5-48eb-b8f5-b1755f21030f</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>f06952f0-89f5-48eb-b8f5-b1755f21030f</t>
+    <t>0dedb8d2-170f-4a15-b3f3-f4ea49ab574d</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>0dedb8d2-170f-4a15-b3f3-f4ea49ab574d</t>
+    <t>d91fbad9-4c0d-4a52-be9c-fd31f17b85c9</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>d91fbad9-4c0d-4a52-be9c-fd31f17b85c9</t>
+    <t>290e263e-cfc5-4bf7-8044-3ab13ae9a276</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>290e263e-cfc5-4bf7-8044-3ab13ae9a276</t>
+    <t>71203235-d5ee-4d69-a9e1-da9a3b37f1db</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>71203235-d5ee-4d69-a9e1-da9a3b37f1db</t>
+    <t>fdc61884-f028-4a55-9fb5-479f62eb7103</t>
   </si>
   <si>
     <t>ANADIA</t>
